--- a/05.Controls/M3.QA.Controls/Resources/Excels/COA2.xlsx
+++ b/05.Controls/M3.QA.Controls/Resources/Excels/COA2.xlsx
@@ -598,7 +598,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -877,6 +877,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Normal 2" xfId="5"/>
@@ -1287,7 +1288,7 @@
   <dimension ref="A1:FT79"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5546875" defaultRowHeight="13.2"/>
@@ -3132,6 +3133,7 @@
       <c r="A17" s="49" t="s">
         <v>34</v>
       </c>
+      <c r="B17" s="108"/>
       <c r="C17" s="50"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>

--- a/05.Controls/M3.QA.Controls/Resources/Excels/COA2.xlsx
+++ b/05.Controls/M3.QA.Controls/Resources/Excels/COA2.xlsx
@@ -799,23 +799,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="7" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -853,31 +866,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Normal 2" xfId="5"/>
@@ -926,7 +926,7 @@
         <xdr:cNvPr id="2" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CFD9312A-8568-479A-B553-F28E5DFD8252}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFD9312A-8568-479A-B553-F28E5DFD8252}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -938,7 +938,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -961,14 +961,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1274,7 +1274,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1288,7 +1288,7 @@
   <dimension ref="A1:FT79"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="H13" sqref="H13:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5546875" defaultRowHeight="13.2"/>
@@ -1299,7 +1299,7 @@
     <col min="4" max="4" width="12" style="2" customWidth="1"/>
     <col min="5" max="9" width="7" style="2" customWidth="1"/>
     <col min="10" max="10" width="8.77734375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="6.44140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" style="2" customWidth="1"/>
     <col min="12" max="12" width="15.88671875" style="2" customWidth="1"/>
     <col min="13" max="13" width="6.109375" style="2" customWidth="1"/>
     <col min="14" max="14" width="7.5546875" style="2"/>
@@ -3072,10 +3072,10 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="90"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="95"/>
       <c r="L13" s="41"/>
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1">
@@ -3087,10 +3087,10 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="93"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="98"/>
       <c r="L14" s="46"/>
     </row>
     <row r="15" spans="1:13" ht="22.5" customHeight="1">
@@ -3102,14 +3102,14 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="94" t="s">
+      <c r="H15" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="95"/>
-      <c r="J15" s="96" t="s">
+      <c r="I15" s="100"/>
+      <c r="J15" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="97"/>
+      <c r="K15" s="102"/>
       <c r="L15" s="47" t="s">
         <v>14</v>
       </c>
@@ -3133,7 +3133,7 @@
       <c r="A17" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="108"/>
+      <c r="B17" s="82"/>
       <c r="C17" s="50"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -3180,22 +3180,22 @@
       <c r="L19" s="36"/>
     </row>
     <row r="20" spans="1:13" ht="21" customHeight="1">
-      <c r="A20" s="100" t="s">
+      <c r="A20" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="101"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="106" t="s">
+      <c r="B20" s="84"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="100" t="s">
+      <c r="E20" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="101"/>
-      <c r="G20" s="101"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="102"/>
-      <c r="J20" s="106" t="s">
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="89" t="s">
         <v>21</v>
       </c>
       <c r="K20" s="18" t="s">
@@ -3205,10 +3205,10 @@
       <c r="M20" s="10"/>
     </row>
     <row r="21" spans="1:13" ht="21.6">
-      <c r="A21" s="103"/>
-      <c r="B21" s="104"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="107"/>
+      <c r="A21" s="86"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="90"/>
       <c r="E21" s="54" t="s">
         <v>35</v>
       </c>
@@ -3224,7 +3224,7 @@
       <c r="I21" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="J21" s="107"/>
+      <c r="J21" s="90"/>
       <c r="K21" s="20" t="s">
         <v>23</v>
       </c>
@@ -3246,8 +3246,8 @@
       <c r="H22" s="60"/>
       <c r="I22" s="60"/>
       <c r="J22" s="25"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="83"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="92"/>
       <c r="M22" s="61">
         <f>IF(J22="OK",1,0)</f>
         <v>0</v>
@@ -3268,8 +3268,8 @@
       <c r="H23" s="64"/>
       <c r="I23" s="65"/>
       <c r="J23" s="25"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="83"/>
+      <c r="K23" s="91"/>
+      <c r="L23" s="92"/>
       <c r="M23" s="61">
         <f t="shared" ref="M23:M30" si="0">IF(J23="OK",1,0)</f>
         <v>0</v>
@@ -3290,8 +3290,8 @@
       <c r="H24" s="66"/>
       <c r="I24" s="67"/>
       <c r="J24" s="25"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="87"/>
+      <c r="K24" s="107"/>
+      <c r="L24" s="108"/>
       <c r="M24" s="61"/>
     </row>
     <row r="25" spans="1:13" ht="19.8">
@@ -3309,8 +3309,8 @@
       <c r="H25" s="66"/>
       <c r="I25" s="67"/>
       <c r="J25" s="26"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="87"/>
+      <c r="K25" s="107"/>
+      <c r="L25" s="108"/>
       <c r="M25" s="61"/>
     </row>
     <row r="26" spans="1:13" ht="19.8">
@@ -3328,8 +3328,8 @@
       <c r="H26" s="60"/>
       <c r="I26" s="60"/>
       <c r="J26" s="26"/>
-      <c r="K26" s="98"/>
-      <c r="L26" s="99"/>
+      <c r="K26" s="103"/>
+      <c r="L26" s="104"/>
       <c r="M26" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3350,8 +3350,8 @@
       <c r="H27" s="60"/>
       <c r="I27" s="60"/>
       <c r="J27" s="26"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="83"/>
+      <c r="K27" s="91"/>
+      <c r="L27" s="92"/>
       <c r="M27" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3372,8 +3372,8 @@
       <c r="H28" s="60"/>
       <c r="I28" s="60"/>
       <c r="J28" s="26"/>
-      <c r="K28" s="84"/>
-      <c r="L28" s="85"/>
+      <c r="K28" s="105"/>
+      <c r="L28" s="106"/>
       <c r="M28" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3394,8 +3394,8 @@
       <c r="H29" s="71"/>
       <c r="I29" s="66"/>
       <c r="J29" s="26"/>
-      <c r="K29" s="86"/>
-      <c r="L29" s="87"/>
+      <c r="K29" s="107"/>
+      <c r="L29" s="108"/>
       <c r="M29" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3416,8 +3416,8 @@
       <c r="H30" s="72"/>
       <c r="I30" s="73"/>
       <c r="J30" s="26"/>
-      <c r="K30" s="86"/>
-      <c r="L30" s="87"/>
+      <c r="K30" s="107"/>
+      <c r="L30" s="108"/>
       <c r="M30" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10304,22 +10304,22 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="16">
-    <mergeCell ref="A20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="H13:K14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K26:L26"/>
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="K29:L29"/>
     <mergeCell ref="K30:L30"/>
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="K25:L25"/>
+    <mergeCell ref="H13:K14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="A20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K22:L22"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094488" right="3.937007874015748E-2" top="0.19685039370078741" bottom="0" header="0.11811023622047244" footer="0"/>
